--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3137.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3137.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8543877696745795</v>
+        <v>1.28768789768219</v>
       </c>
       <c r="B1">
-        <v>1.33064764751599</v>
+        <v>1.421594977378845</v>
       </c>
       <c r="C1">
-        <v>3.147927076485045</v>
+        <v>1.695623397827148</v>
       </c>
       <c r="D1">
-        <v>4.725968460193038</v>
+        <v>3.041944980621338</v>
       </c>
       <c r="E1">
-        <v>2.476683361187115</v>
+        <v>4.258532524108887</v>
       </c>
     </row>
   </sheetData>
